--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.6762780901086821</v>
+        <v>-0.8411854917792635</v>
       </c>
       <c r="D2">
-        <v>0.4988951389797371</v>
+        <v>0.4061215012744057</v>
       </c>
       <c r="E2">
         <v>0.8417597119239771</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2721226465713864</v>
+        <v>-0.2778016380342694</v>
       </c>
       <c r="D3">
-        <v>0.7855388658796114</v>
+        <v>0.7828469691540081</v>
       </c>
       <c r="E3">
         <v>0.8417597119239771</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.049934523772993</v>
+        <v>-1.518784617224351</v>
       </c>
       <c r="D4">
-        <v>0.2937985684458033</v>
+        <v>0.1380617964729218</v>
       </c>
       <c r="E4">
         <v>0.8417597119239771</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3187347777437251</v>
+        <v>-0.3380130701987242</v>
       </c>
       <c r="D5">
-        <v>0.7499408505325875</v>
+        <v>0.7374316209005798</v>
       </c>
       <c r="E5">
         <v>0.8417597119239771</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.4608037591223905</v>
+        <v>0.5045919890224879</v>
       </c>
       <c r="D6">
-        <v>0.6449592908233772</v>
+        <v>0.6171002573772766</v>
       </c>
       <c r="E6">
         <v>0.8563654913665597</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.3332524616659243</v>
+        <v>-0.3503126591275078</v>
       </c>
       <c r="D7">
-        <v>0.738957585347237</v>
+        <v>0.7282651074778745</v>
       </c>
       <c r="E7">
         <v>0.8563654913665597</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.3286104907164608</v>
+        <v>0.2863567500055977</v>
       </c>
       <c r="D8">
-        <v>0.7424637725911181</v>
+        <v>0.7763425859844819</v>
       </c>
       <c r="E8">
         <v>0.8563654913665597</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7724461791593035</v>
+        <v>-0.9466563850380291</v>
       </c>
       <c r="D9">
-        <v>0.439886439358451</v>
+        <v>0.3504937734459981</v>
       </c>
       <c r="E9">
         <v>0.8466131399166626</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.108594235177037</v>
+        <v>-0.1056209815844399</v>
       </c>
       <c r="D10">
-        <v>0.9135286571437375</v>
+        <v>0.9165037705244508</v>
       </c>
       <c r="E10">
         <v>0.8466131399166626</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6584930593305715</v>
+        <v>0.9713308383160291</v>
       </c>
       <c r="D11">
-        <v>0.5102514401459204</v>
+        <v>0.33824342429289</v>
       </c>
       <c r="E11">
         <v>0.863603971567085</v>
